--- a/Projects/INBEVEC/Data/Template.xlsx
+++ b/Projects/INBEVEC/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Relative Positioning" sheetId="1" state="visible" r:id="rId2"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="64">
   <si>
     <t xml:space="preserve">Above Direction</t>
   </si>
@@ -248,64 +248,70 @@
     <t xml:space="preserve">Off Trade</t>
   </si>
   <si>
+    <t xml:space="preserve">CORONA EXTRA 355 ML BOTELLA 3PACK  Equipo de frio – Disponibilidad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Equipo de frio – Disponibilidad</t>
   </si>
   <si>
-    <t xml:space="preserve">CORONA EXTRA 355 ML BOTELLA 3PACK </t>
-  </si>
-  <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">STELLA ARTOIS Equipo de frio – Disponibilidad</t>
+  </si>
+  <si>
     <t xml:space="preserve">STELLA ARTOIS</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">BUDWEISER ROJA BOTELLA 343ML UNIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PILSENER LIGHT BOTELLA 175ML BOTELLA UNIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUB PREMIUM BOTELLA 550ML BOTELLA UNIDAD</t>
+    <t xml:space="preserve">BUDWEISER ROJA BOTELLA 343ML UNIDAD Equipo de frio – Disponibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PILSENER LIGHT BOTELLA 175ML BOTELLA UNIDAD Equipo de frio – Disponibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB PREMIUM BOTELLA 550ML BOTELLA UNIDAD Equipo de frio – Disponibilidad</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">BUDWEISER ROJA BOTELLA 550ML BOTELLA UNIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PILSENER LIGHT BOTELLA 550ML BOTELLA UNIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PILSENER BOTELLA 600ML BOTELLA UNIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUB PREMIUM 330ML BOTELLA UNIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PILSENER LATA 355 ML UNIDAD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUB PREMIUM LATA 355ML UNIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PILSENER LIGHT LATA 355ML UNIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONY MALTA 1000ML BOTELLA UNIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONY MALTA 330ML BOTELLA UNIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONY MALTA PLUS 330ML BOTELLA UNIDAD</t>
+    <t xml:space="preserve">BUDWEISER ROJA BOTELLA 550ML BOTELLA UNIDAD Equipo de frio – Disponibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUDWEISER550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PILSENER LIGHT BOTELLA 550ML BOTELLA UNIDAD Equipo de frio – Disponibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PILSENER BOTELLA 600ML BOTELLA UNIDAD Equipo de frio – Disponibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB PREMIUM 330ML BOTELLA UNIDAD Equipo de frio – Disponibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PILSENER LATA 355 ML UNIDAD  Equipo de frio – Disponibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB PREMIUM LATA 350ML UNIDAD Equipo de frio – Disponibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PILSENER LIGHT LATA 355ML UNIDAD Equipo de frio – Disponibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONY MALTA 1000ML BOTELLA UNIDAD Equipo de frio – Disponibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONY MALTA 330ML BOTELLA UNIDAD Equipo de frio – Disponibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONY MALTA PLUS 330ML BOTELLA UNIDAD Equipo de frio – Disponibilidad</t>
   </si>
   <si>
     <t xml:space="preserve">Brand Blocking - Template</t>
@@ -315,6 +321,9 @@
   </si>
   <si>
     <t xml:space="preserve">Brand Variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Trade/On Trade</t>
   </si>
   <si>
     <t xml:space="preserve">CORONA At Equipo de frio – Disponibilidad</t>
@@ -526,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -553,6 +562,13 @@
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -640,7 +656,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -673,22 +689,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -705,12 +705,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="3" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -718,34 +714,38 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="3" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -831,27 +831,28 @@
   <dimension ref="B2:P65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.44939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.004048582996"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.4493927125506"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.1983805668016"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.66801619433198"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9757085020243"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.753036437247"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.7044534412955"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.1214574898785"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.2348178137652"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1578947368421"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1821862348178"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.1578947368421"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8582995951417"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.7327935222672"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.6315789473684"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.3643724696356"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,16 +927,14 @@
       <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="10" t="s">
-        <v>21</v>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>9497003365</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>9497003365</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>22</v>
@@ -949,32 +948,29 @@
       <c r="L4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="11"/>
+      <c r="M4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="10" t="s">
-        <v>21</v>
+      <c r="H5" s="8" t="n">
+        <v>9497003365</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>22</v>
@@ -985,35 +981,37 @@
       <c r="K5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="8"/>
-      <c r="O5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="10" t="s">
-        <v>26</v>
+      <c r="F6" s="8" t="n">
+        <v>7861122301245</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="10" t="s">
-        <v>21</v>
+      <c r="H6" s="8" t="n">
+        <v>9497003365</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>22</v>
@@ -1024,35 +1022,37 @@
       <c r="K6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="8"/>
-      <c r="O6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="11"/>
+      <c r="O6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="10" t="s">
-        <v>27</v>
+      <c r="F7" s="8" t="n">
+        <v>9497003242</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="10" t="s">
-        <v>21</v>
+      <c r="H7" s="8" t="n">
+        <v>9497003365</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>22</v>
@@ -1063,424 +1063,448 @@
       <c r="K7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="N7" s="8"/>
-      <c r="O7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="11"/>
+      <c r="O7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="12" t="s">
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="n">
+        <v>9497001262</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="n">
+        <v>9497003365</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="12"/>
+      <c r="K8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12" t="s">
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="n">
+        <v>9497003365</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="L9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="n">
+        <v>9497001866</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="n">
+        <v>9497003365</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="12" t="s">
+      <c r="K10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="C11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="n">
+        <v>78603684</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="n">
+        <v>9497003365</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="12" t="s">
+      <c r="K11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="12" t="s">
+      <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="n">
+        <v>9497001057</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="n">
+        <v>9497003365</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="12" t="s">
+      <c r="K12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="12" t="s">
+      <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="n">
+        <v>9497000661</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="n">
+        <v>9497003365</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="12" t="s">
+      <c r="K13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="12" t="s">
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="n">
+        <v>9497002382</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="n">
+        <v>9497003365</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="12" t="s">
+      <c r="K14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="12" t="s">
+      <c r="C15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="n">
+        <v>9497000692</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="n">
+        <v>9497003365</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="12" t="s">
+      <c r="K15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="12" t="s">
+      <c r="C16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="n">
+        <v>9497001309</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="n">
+        <v>9497003365</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="12" t="s">
+      <c r="K16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="12" t="s">
+      <c r="C17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="n">
+        <v>9497001286</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="n">
+        <v>9497003365</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="12" t="s">
+      <c r="K17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="12" t="s">
+      <c r="C18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="n">
+        <v>9497002993</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="n">
+        <v>9497003365</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="12"/>
+      <c r="K18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="8"/>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1494,28 +1518,6 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B7" type="list">
-      <formula1>Channel</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4:I7 M4:M7 O4:O7" type="list">
-      <formula1>YN</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J4:J7 L4:L7 N4:N7 P4:P7" type="list">
-      <formula1>Distance</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K4:K7" type="list">
-      <formula1>YN</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D7" type="list">
-      <formula1>Prm_ISL</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1533,72 +1535,68 @@
     <tabColor rgb="FFDAE3F3"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F65536"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.18623481781377"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.7611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.66801619433198"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.663967611336"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="253" min="10" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="254" min="254" style="0" width="3.18623481781377"/>
-    <col collapsed="false" hidden="false" max="255" min="255" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="256" min="256" style="0" width="79.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.06477732793522"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9757085020243"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.8056680161943"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="254" min="254" style="0" width="3.06477732793522"/>
+    <col collapsed="false" hidden="false" max="255" min="255" style="0" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="256" min="256" style="0" width="77.6194331983806"/>
     <col collapsed="false" hidden="false" max="257" min="257" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="258" min="258" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="259" min="259" style="0" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="260" min="260" style="0" width="42.2348178137652"/>
-    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="262" min="262" style="0" width="6.61133603238866"/>
-    <col collapsed="false" hidden="false" max="263" min="263" style="0" width="9.66801619433198"/>
-    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="39.663967611336"/>
-    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="509" min="266" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="510" min="510" style="0" width="3.18623481781377"/>
-    <col collapsed="false" hidden="false" max="511" min="511" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="512" min="512" style="0" width="79.5748987854251"/>
+    <col collapsed="false" hidden="false" max="258" min="258" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="259" min="259" style="0" width="29.3805668016194"/>
+    <col collapsed="false" hidden="false" max="260" min="260" style="0" width="41.2550607287449"/>
+    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="15.5465587044534"/>
+    <col collapsed="false" hidden="false" max="262" min="262" style="0" width="6.48987854251012"/>
+    <col collapsed="false" hidden="false" max="263" min="263" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="38.8056680161943"/>
+    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="510" min="510" style="0" width="3.06477732793522"/>
+    <col collapsed="false" hidden="false" max="511" min="511" style="0" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="512" min="512" style="0" width="77.6194331983806"/>
     <col collapsed="false" hidden="false" max="513" min="513" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="514" min="514" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="515" min="515" style="0" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="516" min="516" style="0" width="42.2348178137652"/>
-    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="518" min="518" style="0" width="6.61133603238866"/>
-    <col collapsed="false" hidden="false" max="519" min="519" style="0" width="9.66801619433198"/>
-    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="39.663967611336"/>
-    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="765" min="522" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="766" min="766" style="0" width="3.18623481781377"/>
-    <col collapsed="false" hidden="false" max="767" min="767" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="768" min="768" style="0" width="79.5748987854251"/>
+    <col collapsed="false" hidden="false" max="514" min="514" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="515" min="515" style="0" width="29.3805668016194"/>
+    <col collapsed="false" hidden="false" max="516" min="516" style="0" width="41.2550607287449"/>
+    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="15.5465587044534"/>
+    <col collapsed="false" hidden="false" max="518" min="518" style="0" width="6.48987854251012"/>
+    <col collapsed="false" hidden="false" max="519" min="519" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="38.8056680161943"/>
+    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="766" min="766" style="0" width="3.06477732793522"/>
+    <col collapsed="false" hidden="false" max="767" min="767" style="0" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="768" min="768" style="0" width="77.6194331983806"/>
     <col collapsed="false" hidden="false" max="769" min="769" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="770" min="770" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="771" min="771" style="0" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="772" min="772" style="0" width="42.2348178137652"/>
-    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="774" min="774" style="0" width="6.61133603238866"/>
-    <col collapsed="false" hidden="false" max="775" min="775" style="0" width="9.66801619433198"/>
-    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="39.663967611336"/>
-    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="1021" min="778" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="1022" min="1022" style="0" width="3.18623481781377"/>
-    <col collapsed="false" hidden="false" max="1023" min="1023" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="79.5748987854251"/>
+    <col collapsed="false" hidden="false" max="770" min="770" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="771" min="771" style="0" width="29.3805668016194"/>
+    <col collapsed="false" hidden="false" max="772" min="772" style="0" width="41.2550607287449"/>
+    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="15.5465587044534"/>
+    <col collapsed="false" hidden="false" max="774" min="774" style="0" width="6.48987854251012"/>
+    <col collapsed="false" hidden="false" max="775" min="775" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="38.8056680161943"/>
+    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1022" min="1022" style="0" width="3.06477732793522"/>
+    <col collapsed="false" hidden="false" max="1023" min="1023" style="0" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="77.6194331983806"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="13" t="s">
-        <v>40</v>
+      <c r="C2" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1606,162 +1604,145 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>42</v>
+      <c r="E7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="16" t="s">
-        <v>19</v>
+      <c r="B8" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="16" t="s">
-        <v>19</v>
+      <c r="B9" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="16" t="s">
-        <v>19</v>
+      <c r="B11" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="16" t="s">
-        <v>19</v>
+      <c r="B12" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="16" t="s">
-        <v>19</v>
+      <c r="B13" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="16" t="s">
-        <v>19</v>
+      <c r="B14" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>57</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="1">
     <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="IZ8:IZ9 SV8:SV9 ACR8:ACR9" type="whole">
       <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B8:B14" type="list">
-      <formula1>Channel</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D8:D14" type="list">
-      <formula1>Prm_ISL</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1784,56 +1765,53 @@
   </sheetPr>
   <dimension ref="B2:E65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8947368421053"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5465587044534"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>58</v>
+      <c r="C4" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="26" t="n">
+      <c r="B5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="22" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="1048572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Projects/INBEVEC/Data/Template.xlsx
+++ b/Projects/INBEVEC/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Relative Positioning" sheetId="1" state="visible" r:id="rId2"/>
@@ -836,23 +836,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.7044534412955"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.1214574898785"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.2348178137652"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1578947368421"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1821862348178"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.1578947368421"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8582995951417"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.7327935222672"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.6315789473684"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.3643724696356"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9757085020243"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.4372469635627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9514170040486"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6437246963563"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4898785425101"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6437246963563"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.3036437246964"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6234817813765"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.0404858299595"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.9554655870445"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="30.1133603238866"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1543,54 +1543,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.06477732793522"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9757085020243"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.8056680161943"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="254" min="254" style="0" width="3.06477732793522"/>
-    <col collapsed="false" hidden="false" max="255" min="255" style="0" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="256" min="256" style="0" width="77.6194331983806"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.18623481781377"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.0121457489879"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.0121457489879"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1133603238866"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.66801619433198"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.663967611336"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3684210526316"/>
+    <col collapsed="false" hidden="false" max="253" min="10" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="254" min="254" style="0" width="3.18623481781377"/>
+    <col collapsed="false" hidden="false" max="255" min="255" style="0" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="256" min="256" style="0" width="79.5748987854251"/>
     <col collapsed="false" hidden="false" max="257" min="257" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="258" min="258" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="259" min="259" style="0" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="260" min="260" style="0" width="41.2550607287449"/>
-    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="15.5465587044534"/>
-    <col collapsed="false" hidden="false" max="262" min="262" style="0" width="6.48987854251012"/>
-    <col collapsed="false" hidden="false" max="263" min="263" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="38.8056680161943"/>
-    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="510" min="510" style="0" width="3.06477732793522"/>
-    <col collapsed="false" hidden="false" max="511" min="511" style="0" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="512" min="512" style="0" width="77.6194331983806"/>
+    <col collapsed="false" hidden="false" max="258" min="258" style="0" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="259" min="259" style="0" width="30.1133603238866"/>
+    <col collapsed="false" hidden="false" max="260" min="260" style="0" width="42.2348178137652"/>
+    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="262" min="262" style="0" width="6.61133603238866"/>
+    <col collapsed="false" hidden="false" max="263" min="263" style="0" width="9.66801619433198"/>
+    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="39.663967611336"/>
+    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="18.3684210526316"/>
+    <col collapsed="false" hidden="false" max="509" min="266" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="510" min="510" style="0" width="3.18623481781377"/>
+    <col collapsed="false" hidden="false" max="511" min="511" style="0" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="512" min="512" style="0" width="79.5748987854251"/>
     <col collapsed="false" hidden="false" max="513" min="513" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="514" min="514" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="515" min="515" style="0" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="516" min="516" style="0" width="41.2550607287449"/>
-    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="15.5465587044534"/>
-    <col collapsed="false" hidden="false" max="518" min="518" style="0" width="6.48987854251012"/>
-    <col collapsed="false" hidden="false" max="519" min="519" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="38.8056680161943"/>
-    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="766" min="766" style="0" width="3.06477732793522"/>
-    <col collapsed="false" hidden="false" max="767" min="767" style="0" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="768" min="768" style="0" width="77.6194331983806"/>
+    <col collapsed="false" hidden="false" max="514" min="514" style="0" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="515" min="515" style="0" width="30.1133603238866"/>
+    <col collapsed="false" hidden="false" max="516" min="516" style="0" width="42.2348178137652"/>
+    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="518" min="518" style="0" width="6.61133603238866"/>
+    <col collapsed="false" hidden="false" max="519" min="519" style="0" width="9.66801619433198"/>
+    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="39.663967611336"/>
+    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="18.3684210526316"/>
+    <col collapsed="false" hidden="false" max="765" min="522" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="766" min="766" style="0" width="3.18623481781377"/>
+    <col collapsed="false" hidden="false" max="767" min="767" style="0" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="768" min="768" style="0" width="79.5748987854251"/>
     <col collapsed="false" hidden="false" max="769" min="769" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="770" min="770" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="771" min="771" style="0" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="772" min="772" style="0" width="41.2550607287449"/>
-    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="15.5465587044534"/>
-    <col collapsed="false" hidden="false" max="774" min="774" style="0" width="6.48987854251012"/>
-    <col collapsed="false" hidden="false" max="775" min="775" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="38.8056680161943"/>
-    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="1022" min="1022" style="0" width="3.06477732793522"/>
-    <col collapsed="false" hidden="false" max="1023" min="1023" style="0" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="77.6194331983806"/>
+    <col collapsed="false" hidden="false" max="770" min="770" style="0" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="771" min="771" style="0" width="30.1133603238866"/>
+    <col collapsed="false" hidden="false" max="772" min="772" style="0" width="42.2348178137652"/>
+    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="774" min="774" style="0" width="6.61133603238866"/>
+    <col collapsed="false" hidden="false" max="775" min="775" style="0" width="9.66801619433198"/>
+    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="39.663967611336"/>
+    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="18.3684210526316"/>
+    <col collapsed="false" hidden="false" max="1021" min="778" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1022" min="1022" style="0" width="3.18623481781377"/>
+    <col collapsed="false" hidden="false" max="1023" min="1023" style="0" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="79.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1766,15 +1770,17 @@
   <dimension ref="B2:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7732793522267"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5465587044534"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3805668016194"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8947368421053"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1809,7 +1815,7 @@
         <v>63</v>
       </c>
       <c r="E5" s="22" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Projects/INBEVEC/Data/Template.xlsx
+++ b/Projects/INBEVEC/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Relative Positioning" sheetId="1" state="visible" r:id="rId2"/>
@@ -338,25 +338,25 @@
     <t xml:space="preserve">BUDWEISER At Equipo de frio – Disponibilidad</t>
   </si>
   <si>
-    <t xml:space="preserve">BUDWEISER</t>
+    <t xml:space="preserve">Budweiser</t>
   </si>
   <si>
     <t xml:space="preserve">PILSENER LIGHT At Equipo de frio – Disponibilidad</t>
   </si>
   <si>
-    <t xml:space="preserve">PILSENER LIGHT</t>
+    <t xml:space="preserve">Pilsener Light</t>
   </si>
   <si>
     <t xml:space="preserve">CLUB PREMIUM At Equipo de frio – Disponibilidad</t>
   </si>
   <si>
-    <t xml:space="preserve">CLUB PREMIUM</t>
+    <t xml:space="preserve">Club Premium</t>
   </si>
   <si>
     <t xml:space="preserve">PILSENER At Equipo de frio – Disponibilidad</t>
   </si>
   <si>
-    <t xml:space="preserve">PILSENER</t>
+    <t xml:space="preserve">Pilsener</t>
   </si>
   <si>
     <t xml:space="preserve">PONY MALTA At Equipo de frio – Disponibilidad</t>
@@ -836,23 +836,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9757085020243"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.4372469635627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9514170040486"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6437246963563"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4898785425101"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6437246963563"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.3036437246964"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6234817813765"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.0404858299595"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.9554655870445"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.78947368421053"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.5991902834008"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1174089068826"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1174089068826"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.78947368421053"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.7327935222672"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8744939271255"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.6437246963563"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="32.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.78947368421053"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,64 +1537,64 @@
   </sheetPr>
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.18623481781377"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.0121457489879"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.0121457489879"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.66801619433198"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.663967611336"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="253" min="10" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.0769230769231"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.3967611336032"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.0404858299595"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.4817813765182"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="253" min="10" style="0" width="9.30364372469636"/>
     <col collapsed="false" hidden="false" max="254" min="254" style="0" width="3.18623481781377"/>
-    <col collapsed="false" hidden="false" max="255" min="255" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="256" min="256" style="0" width="79.5748987854251"/>
+    <col collapsed="false" hidden="false" max="255" min="255" style="0" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="256" min="256" style="0" width="85.5748987854251"/>
     <col collapsed="false" hidden="false" max="257" min="257" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="258" min="258" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="259" min="259" style="0" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="260" min="260" style="0" width="42.2348178137652"/>
-    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="262" min="262" style="0" width="6.61133603238866"/>
-    <col collapsed="false" hidden="false" max="263" min="263" style="0" width="9.66801619433198"/>
-    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="39.663967611336"/>
-    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="509" min="266" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="258" min="258" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="259" min="259" style="0" width="32.3198380566802"/>
+    <col collapsed="false" hidden="false" max="260" min="260" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="262" min="262" style="0" width="6.97570850202429"/>
+    <col collapsed="false" hidden="false" max="263" min="263" style="0" width="10.0404858299595"/>
+    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="42.4817813765182"/>
+    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="509" min="266" style="0" width="9.30364372469636"/>
     <col collapsed="false" hidden="false" max="510" min="510" style="0" width="3.18623481781377"/>
-    <col collapsed="false" hidden="false" max="511" min="511" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="512" min="512" style="0" width="79.5748987854251"/>
+    <col collapsed="false" hidden="false" max="511" min="511" style="0" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="512" min="512" style="0" width="85.5748987854251"/>
     <col collapsed="false" hidden="false" max="513" min="513" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="514" min="514" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="515" min="515" style="0" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="516" min="516" style="0" width="42.2348178137652"/>
-    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="518" min="518" style="0" width="6.61133603238866"/>
-    <col collapsed="false" hidden="false" max="519" min="519" style="0" width="9.66801619433198"/>
-    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="39.663967611336"/>
-    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="765" min="522" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="514" min="514" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="515" min="515" style="0" width="32.3198380566802"/>
+    <col collapsed="false" hidden="false" max="516" min="516" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="518" min="518" style="0" width="6.97570850202429"/>
+    <col collapsed="false" hidden="false" max="519" min="519" style="0" width="10.0404858299595"/>
+    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="42.4817813765182"/>
+    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="765" min="522" style="0" width="9.30364372469636"/>
     <col collapsed="false" hidden="false" max="766" min="766" style="0" width="3.18623481781377"/>
-    <col collapsed="false" hidden="false" max="767" min="767" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="768" min="768" style="0" width="79.5748987854251"/>
+    <col collapsed="false" hidden="false" max="767" min="767" style="0" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="768" min="768" style="0" width="85.5748987854251"/>
     <col collapsed="false" hidden="false" max="769" min="769" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="770" min="770" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="771" min="771" style="0" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="772" min="772" style="0" width="42.2348178137652"/>
-    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="774" min="774" style="0" width="6.61133603238866"/>
-    <col collapsed="false" hidden="false" max="775" min="775" style="0" width="9.66801619433198"/>
-    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="39.663967611336"/>
-    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="1021" min="778" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="770" min="770" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="771" min="771" style="0" width="32.3198380566802"/>
+    <col collapsed="false" hidden="false" max="772" min="772" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="774" min="774" style="0" width="6.97570850202429"/>
+    <col collapsed="false" hidden="false" max="775" min="775" style="0" width="10.0404858299595"/>
+    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="42.4817813765182"/>
+    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1021" min="778" style="0" width="9.30364372469636"/>
     <col collapsed="false" hidden="false" max="1022" min="1022" style="0" width="3.18623481781377"/>
-    <col collapsed="false" hidden="false" max="1023" min="1023" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="79.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1023" min="1023" style="0" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="85.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1770,17 +1770,17 @@
   <dimension ref="B2:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8947368421053"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.587044534413"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0364372469636"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Projects/INBEVEC/Data/Template.xlsx
+++ b/Projects/INBEVEC/Data/Template.xlsx
@@ -338,25 +338,25 @@
     <t xml:space="preserve">BUDWEISER At Equipo de frio – Disponibilidad</t>
   </si>
   <si>
-    <t xml:space="preserve">BUDWEISER</t>
+    <t xml:space="preserve">Budweiser</t>
   </si>
   <si>
     <t xml:space="preserve">PILSENER LIGHT At Equipo de frio – Disponibilidad</t>
   </si>
   <si>
-    <t xml:space="preserve">PILSENER LIGHT</t>
+    <t xml:space="preserve">Pilsener Light</t>
   </si>
   <si>
     <t xml:space="preserve">CLUB PREMIUM At Equipo de frio – Disponibilidad</t>
   </si>
   <si>
-    <t xml:space="preserve">CLUB PREMIUM</t>
+    <t xml:space="preserve">Club Premium</t>
   </si>
   <si>
     <t xml:space="preserve">PILSENER At Equipo de frio – Disponibilidad</t>
   </si>
   <si>
-    <t xml:space="preserve">PILSENER</t>
+    <t xml:space="preserve">Pilsener</t>
   </si>
   <si>
     <t xml:space="preserve">PONY MALTA At Equipo de frio – Disponibilidad</t>
@@ -836,23 +836,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.7044534412955"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.1214574898785"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.2348178137652"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1578947368421"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1821862348178"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.1578947368421"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8582995951417"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.7327935222672"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.6315789473684"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.3643724696356"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.78947368421053"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.5991902834008"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1174089068826"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1174089068826"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.78947368421053"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.7327935222672"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8744939271255"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.6437246963563"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="32.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.78947368421053"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,60 +1537,64 @@
   </sheetPr>
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.06477732793522"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9757085020243"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.8056680161943"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="254" min="254" style="0" width="3.06477732793522"/>
-    <col collapsed="false" hidden="false" max="255" min="255" style="0" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="256" min="256" style="0" width="77.6194331983806"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.18623481781377"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.0769230769231"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.3967611336032"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.0404858299595"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.4817813765182"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="253" min="10" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="254" min="254" style="0" width="3.18623481781377"/>
+    <col collapsed="false" hidden="false" max="255" min="255" style="0" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="256" min="256" style="0" width="85.5748987854251"/>
     <col collapsed="false" hidden="false" max="257" min="257" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="258" min="258" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="259" min="259" style="0" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="260" min="260" style="0" width="41.2550607287449"/>
-    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="15.5465587044534"/>
-    <col collapsed="false" hidden="false" max="262" min="262" style="0" width="6.48987854251012"/>
-    <col collapsed="false" hidden="false" max="263" min="263" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="38.8056680161943"/>
-    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="510" min="510" style="0" width="3.06477732793522"/>
-    <col collapsed="false" hidden="false" max="511" min="511" style="0" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="512" min="512" style="0" width="77.6194331983806"/>
+    <col collapsed="false" hidden="false" max="258" min="258" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="259" min="259" style="0" width="32.3198380566802"/>
+    <col collapsed="false" hidden="false" max="260" min="260" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="262" min="262" style="0" width="6.97570850202429"/>
+    <col collapsed="false" hidden="false" max="263" min="263" style="0" width="10.0404858299595"/>
+    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="42.4817813765182"/>
+    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="509" min="266" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="510" min="510" style="0" width="3.18623481781377"/>
+    <col collapsed="false" hidden="false" max="511" min="511" style="0" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="512" min="512" style="0" width="85.5748987854251"/>
     <col collapsed="false" hidden="false" max="513" min="513" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="514" min="514" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="515" min="515" style="0" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="516" min="516" style="0" width="41.2550607287449"/>
-    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="15.5465587044534"/>
-    <col collapsed="false" hidden="false" max="518" min="518" style="0" width="6.48987854251012"/>
-    <col collapsed="false" hidden="false" max="519" min="519" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="38.8056680161943"/>
-    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="766" min="766" style="0" width="3.06477732793522"/>
-    <col collapsed="false" hidden="false" max="767" min="767" style="0" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="768" min="768" style="0" width="77.6194331983806"/>
+    <col collapsed="false" hidden="false" max="514" min="514" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="515" min="515" style="0" width="32.3198380566802"/>
+    <col collapsed="false" hidden="false" max="516" min="516" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="518" min="518" style="0" width="6.97570850202429"/>
+    <col collapsed="false" hidden="false" max="519" min="519" style="0" width="10.0404858299595"/>
+    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="42.4817813765182"/>
+    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="765" min="522" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="766" min="766" style="0" width="3.18623481781377"/>
+    <col collapsed="false" hidden="false" max="767" min="767" style="0" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="768" min="768" style="0" width="85.5748987854251"/>
     <col collapsed="false" hidden="false" max="769" min="769" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="770" min="770" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="771" min="771" style="0" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="772" min="772" style="0" width="41.2550607287449"/>
-    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="15.5465587044534"/>
-    <col collapsed="false" hidden="false" max="774" min="774" style="0" width="6.48987854251012"/>
-    <col collapsed="false" hidden="false" max="775" min="775" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="38.8056680161943"/>
-    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="1022" min="1022" style="0" width="3.06477732793522"/>
-    <col collapsed="false" hidden="false" max="1023" min="1023" style="0" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="77.6194331983806"/>
+    <col collapsed="false" hidden="false" max="770" min="770" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="771" min="771" style="0" width="32.3198380566802"/>
+    <col collapsed="false" hidden="false" max="772" min="772" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="774" min="774" style="0" width="6.97570850202429"/>
+    <col collapsed="false" hidden="false" max="775" min="775" style="0" width="10.0404858299595"/>
+    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="42.4817813765182"/>
+    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1021" min="778" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1022" min="1022" style="0" width="3.18623481781377"/>
+    <col collapsed="false" hidden="false" max="1023" min="1023" style="0" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="85.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1766,15 +1770,17 @@
   <dimension ref="B2:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7732793522267"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5465587044534"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.587044534413"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0364372469636"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1809,7 +1815,7 @@
         <v>63</v>
       </c>
       <c r="E5" s="22" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
